--- a/data/Simulator output.xlsx
+++ b/data/Simulator output.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -506,10 +506,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScale="81" workbookViewId="0">
+      <selection activeCell="X14" sqref="A5:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -780,28 +780,28 @@
         <v>137483</v>
       </c>
       <c r="N5" t="n">
-        <v>3006</v>
+        <v>4092</v>
       </c>
       <c r="O5" t="n">
-        <v>6454</v>
+        <v>9894</v>
       </c>
       <c r="P5" t="n">
-        <v>74493</v>
+        <v>71049</v>
       </c>
       <c r="Q5" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
@@ -836,28 +836,28 @@
         <v>152631</v>
       </c>
       <c r="N6" t="n">
-        <v>4187</v>
+        <v>5116</v>
       </c>
       <c r="O6" t="n">
-        <v>15994</v>
+        <v>20753</v>
       </c>
       <c r="P6" t="n">
-        <v>92448</v>
+        <v>90025</v>
       </c>
       <c r="Q6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
@@ -892,28 +892,28 @@
         <v>196762</v>
       </c>
       <c r="N7" t="n">
-        <v>3137</v>
+        <v>4078</v>
       </c>
       <c r="O7" t="n">
-        <v>23264</v>
+        <v>30513</v>
       </c>
       <c r="P7" t="n">
-        <v>86005</v>
+        <v>82958</v>
       </c>
       <c r="Q7" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
@@ -948,28 +948,28 @@
         <v>149656</v>
       </c>
       <c r="N8" t="n">
-        <v>3764</v>
+        <v>4536</v>
       </c>
       <c r="O8" t="n">
-        <v>12498</v>
+        <v>16324</v>
       </c>
       <c r="P8" t="n">
-        <v>102446</v>
+        <v>99990</v>
       </c>
       <c r="Q8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
@@ -1004,28 +1004,28 @@
         <v>150085</v>
       </c>
       <c r="N9" t="n">
-        <v>4616</v>
+        <v>5633</v>
       </c>
       <c r="O9" t="n">
-        <v>7070</v>
+        <v>9807</v>
       </c>
       <c r="P9" t="n">
-        <v>76896</v>
+        <v>72706</v>
       </c>
       <c r="Q9" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R9" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
@@ -1050,11 +1050,6 @@
       <c r="E10" t="n">
         <v>144</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>80</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>409325</v>
+        <v>410581</v>
       </c>
       <c r="Q10" t="n">
         <v>42</v>
@@ -1111,11 +1106,6 @@
       <c r="E11" t="n">
         <v>144</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>80</v>
       </c>
@@ -1132,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>417106</v>
+        <v>417598</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1172,11 +1162,6 @@
       <c r="E12" t="n">
         <v>144</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>80</v>
       </c>
@@ -1187,19 +1172,19 @@
         <v>196762</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>403792</v>
+        <v>403521</v>
       </c>
       <c r="Q12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1233,11 +1218,6 @@
       <c r="E13" t="n">
         <v>144</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>80</v>
       </c>
@@ -1254,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>430511</v>
+        <v>431481</v>
       </c>
       <c r="Q13" t="n">
         <v>39</v>
       </c>
       <c r="R13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1294,11 +1274,6 @@
       <c r="E14" t="n">
         <v>144</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>80</v>
       </c>
@@ -1315,21 +1290,6626 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>407811</v>
+        <v>409298</v>
       </c>
       <c r="Q14" t="n">
         <v>42</v>
       </c>
       <c r="R14" t="n">
+        <v>14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44</v>
+      </c>
+      <c r="D15" t="n">
+        <v>183</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40</v>
+      </c>
+      <c r="L15" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M15" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P15" t="n">
+        <v>71049</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>80</v>
+      </c>
+      <c r="R15" t="n">
+        <v>65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>183</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>40</v>
+      </c>
+      <c r="L16" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M16" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90025</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>58</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>183</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40</v>
+      </c>
+      <c r="L17" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M17" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O17" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P17" t="n">
+        <v>82958</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>77</v>
+      </c>
+      <c r="R17" t="n">
+        <v>63</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>183</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40</v>
+      </c>
+      <c r="L18" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M18" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P18" t="n">
+        <v>99990</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>72</v>
+      </c>
+      <c r="R18" t="n">
+        <v>56</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>183</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
+      </c>
+      <c r="L19" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P19" t="n">
+        <v>72706</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>80</v>
+      </c>
+      <c r="R19" t="n">
+        <v>68</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>183</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>80</v>
+      </c>
+      <c r="L20" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M20" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>410581</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>42</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44</v>
+      </c>
+      <c r="D21" t="n">
+        <v>183</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>80</v>
+      </c>
+      <c r="L21" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M21" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>417598</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>41</v>
+      </c>
+      <c r="R21" t="n">
+        <v>18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80</v>
+      </c>
+      <c r="L22" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M22" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12</v>
+      </c>
+      <c r="P22" t="n">
+        <v>403521</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>43</v>
+      </c>
+      <c r="R22" t="n">
+        <v>24</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D23" t="n">
+        <v>183</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>80</v>
+      </c>
+      <c r="L23" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>431481</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>39</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44</v>
+      </c>
+      <c r="D24" t="n">
+        <v>183</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>80</v>
+      </c>
+      <c r="L24" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>409298</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>42</v>
+      </c>
+      <c r="R24" t="n">
+        <v>14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="n">
+        <v>44</v>
+      </c>
+      <c r="D25" t="n">
+        <v>183</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40</v>
+      </c>
+      <c r="L25" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M25" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19682</v>
+      </c>
+      <c r="O25" t="n">
+        <v>57749</v>
+      </c>
+      <c r="P25" t="n">
+        <v>132948</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="n">
+        <v>12</v>
+      </c>
+      <c r="T25" t="n">
+        <v>42</v>
+      </c>
+      <c r="U25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44</v>
+      </c>
+      <c r="D26" t="n">
+        <v>183</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>40</v>
+      </c>
+      <c r="L26" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M26" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16117</v>
+      </c>
+      <c r="O26" t="n">
+        <v>70278</v>
+      </c>
+      <c r="P26" t="n">
+        <v>149392</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>57</v>
+      </c>
+      <c r="R26" t="n">
+        <v>26</v>
+      </c>
+      <c r="S26" t="n">
+        <v>12</v>
+      </c>
+      <c r="T26" t="n">
+        <v>46</v>
+      </c>
+      <c r="U26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44</v>
+      </c>
+      <c r="D27" t="n">
+        <v>183</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40</v>
+      </c>
+      <c r="L27" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M27" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13702</v>
+      </c>
+      <c r="O27" t="n">
+        <v>101604</v>
+      </c>
+      <c r="P27" t="n">
+        <v>162464</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>54</v>
+      </c>
+      <c r="R27" t="n">
+        <v>27</v>
+      </c>
+      <c r="S27" t="n">
         <v>13</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="T27" t="n">
+        <v>52</v>
+      </c>
+      <c r="U27" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44</v>
+      </c>
+      <c r="D28" t="n">
+        <v>183</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40</v>
+      </c>
+      <c r="L28" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16137</v>
+      </c>
+      <c r="O28" t="n">
+        <v>61845</v>
+      </c>
+      <c r="P28" t="n">
+        <v>155526</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>56</v>
+      </c>
+      <c r="R28" t="n">
+        <v>27</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13</v>
+      </c>
+      <c r="T28" t="n">
+        <v>41</v>
+      </c>
+      <c r="U28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="n">
+        <v>44</v>
+      </c>
+      <c r="D29" t="n">
+        <v>183</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>40</v>
+      </c>
+      <c r="L29" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M29" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19063</v>
+      </c>
+      <c r="O29" t="n">
+        <v>60867</v>
+      </c>
+      <c r="P29" t="n">
+        <v>135245</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>61</v>
+      </c>
+      <c r="R29" t="n">
+        <v>33</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>41</v>
+      </c>
+      <c r="U29" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44</v>
+      </c>
+      <c r="D30" t="n">
+        <v>183</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>80</v>
+      </c>
+      <c r="L30" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M30" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3283</v>
+      </c>
+      <c r="O30" t="n">
+        <v>13915</v>
+      </c>
+      <c r="P30" t="n">
+        <v>424116</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>40</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>44</v>
+      </c>
+      <c r="D31" t="n">
+        <v>183</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>80</v>
+      </c>
+      <c r="L31" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M31" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3918</v>
+      </c>
+      <c r="O31" t="n">
+        <v>22574</v>
+      </c>
+      <c r="P31" t="n">
+        <v>439889</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>37</v>
+      </c>
+      <c r="R31" t="n">
+        <v>12</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>15</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="n">
+        <v>44</v>
+      </c>
+      <c r="D32" t="n">
+        <v>183</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="L32" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M32" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4182</v>
+      </c>
+      <c r="O32" t="n">
+        <v>40344</v>
+      </c>
+      <c r="P32" t="n">
+        <v>442084</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>37</v>
+      </c>
+      <c r="R32" t="n">
+        <v>15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>21</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44</v>
+      </c>
+      <c r="D33" t="n">
+        <v>183</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>80</v>
+      </c>
+      <c r="L33" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M33" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3061</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15271</v>
+      </c>
+      <c r="P33" t="n">
+        <v>446276</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44</v>
+      </c>
+      <c r="D34" t="n">
+        <v>183</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>80</v>
+      </c>
+      <c r="L34" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M34" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1437</v>
+      </c>
+      <c r="O34" t="n">
+        <v>12110</v>
+      </c>
+      <c r="P34" t="n">
+        <v>419461</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>40</v>
+      </c>
+      <c r="R34" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44</v>
+      </c>
+      <c r="D35" t="n">
+        <v>183</v>
+      </c>
+      <c r="E35" t="n">
+        <v>144</v>
+      </c>
+      <c r="K35" t="n">
+        <v>40</v>
+      </c>
+      <c r="L35" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M35" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P35" t="n">
+        <v>71049</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>80</v>
+      </c>
+      <c r="R35" t="n">
+        <v>65</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44</v>
+      </c>
+      <c r="D36" t="n">
+        <v>183</v>
+      </c>
+      <c r="E36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="n">
+        <v>40</v>
+      </c>
+      <c r="L36" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M36" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P36" t="n">
+        <v>90025</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>58</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="n">
+        <v>44</v>
+      </c>
+      <c r="D37" t="n">
+        <v>183</v>
+      </c>
+      <c r="E37" t="n">
+        <v>144</v>
+      </c>
+      <c r="K37" t="n">
+        <v>40</v>
+      </c>
+      <c r="L37" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M37" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O37" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P37" t="n">
+        <v>82958</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>77</v>
+      </c>
+      <c r="R37" t="n">
+        <v>63</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="n">
+        <v>44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>183</v>
+      </c>
+      <c r="E38" t="n">
+        <v>144</v>
+      </c>
+      <c r="K38" t="n">
+        <v>40</v>
+      </c>
+      <c r="L38" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M38" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O38" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P38" t="n">
+        <v>99990</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>72</v>
+      </c>
+      <c r="R38" t="n">
+        <v>56</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>11</v>
+      </c>
+      <c r="U38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C39" t="n">
+        <v>44</v>
+      </c>
+      <c r="D39" t="n">
+        <v>183</v>
+      </c>
+      <c r="E39" t="n">
+        <v>144</v>
+      </c>
+      <c r="K39" t="n">
+        <v>40</v>
+      </c>
+      <c r="L39" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M39" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P39" t="n">
+        <v>72706</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>80</v>
+      </c>
+      <c r="R39" t="n">
+        <v>68</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>7</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C40" t="n">
+        <v>44</v>
+      </c>
+      <c r="D40" t="n">
+        <v>183</v>
+      </c>
+      <c r="E40" t="n">
+        <v>144</v>
+      </c>
+      <c r="K40" t="n">
+        <v>80</v>
+      </c>
+      <c r="L40" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M40" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>410581</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>42</v>
+      </c>
+      <c r="R40" t="n">
+        <v>14</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>183</v>
+      </c>
+      <c r="E41" t="n">
+        <v>144</v>
+      </c>
+      <c r="K41" t="n">
+        <v>80</v>
+      </c>
+      <c r="L41" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M41" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>417598</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="n">
+        <v>44</v>
+      </c>
+      <c r="D42" t="n">
+        <v>183</v>
+      </c>
+      <c r="E42" t="n">
+        <v>144</v>
+      </c>
+      <c r="K42" t="n">
+        <v>80</v>
+      </c>
+      <c r="L42" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M42" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>12</v>
+      </c>
+      <c r="P42" t="n">
+        <v>403521</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>43</v>
+      </c>
+      <c r="R42" t="n">
+        <v>24</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>44</v>
+      </c>
+      <c r="D43" t="n">
+        <v>183</v>
+      </c>
+      <c r="E43" t="n">
+        <v>144</v>
+      </c>
+      <c r="K43" t="n">
+        <v>80</v>
+      </c>
+      <c r="L43" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M43" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>431481</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>39</v>
+      </c>
+      <c r="R43" t="n">
+        <v>15</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C44" t="n">
+        <v>44</v>
+      </c>
+      <c r="D44" t="n">
+        <v>183</v>
+      </c>
+      <c r="E44" t="n">
+        <v>144</v>
+      </c>
+      <c r="K44" t="n">
+        <v>80</v>
+      </c>
+      <c r="L44" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M44" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>409298</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42</v>
+      </c>
+      <c r="R44" t="n">
+        <v>14</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="n">
+        <v>183</v>
+      </c>
+      <c r="E45" t="n">
+        <v>144</v>
+      </c>
+      <c r="K45" t="n">
+        <v>40</v>
+      </c>
+      <c r="L45" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P45" t="n">
+        <v>71049</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>80</v>
+      </c>
+      <c r="R45" t="n">
+        <v>65</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>7</v>
+      </c>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>183</v>
+      </c>
+      <c r="E46" t="n">
+        <v>144</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40</v>
+      </c>
+      <c r="L46" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M46" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O46" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P46" t="n">
+        <v>90025</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>75</v>
+      </c>
+      <c r="R46" t="n">
+        <v>58</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>14</v>
+      </c>
+      <c r="U46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" t="n">
+        <v>183</v>
+      </c>
+      <c r="E47" t="n">
+        <v>144</v>
+      </c>
+      <c r="K47" t="n">
+        <v>40</v>
+      </c>
+      <c r="L47" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M47" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P47" t="n">
+        <v>82958</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>77</v>
+      </c>
+      <c r="R47" t="n">
+        <v>63</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>16</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C48" t="n">
+        <v>44</v>
+      </c>
+      <c r="D48" t="n">
+        <v>183</v>
+      </c>
+      <c r="E48" t="n">
+        <v>144</v>
+      </c>
+      <c r="K48" t="n">
+        <v>40</v>
+      </c>
+      <c r="L48" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M48" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O48" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P48" t="n">
+        <v>99990</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>72</v>
+      </c>
+      <c r="R48" t="n">
+        <v>56</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>11</v>
+      </c>
+      <c r="U48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C49" t="n">
+        <v>44</v>
+      </c>
+      <c r="D49" t="n">
+        <v>183</v>
+      </c>
+      <c r="E49" t="n">
+        <v>144</v>
+      </c>
+      <c r="K49" t="n">
+        <v>40</v>
+      </c>
+      <c r="L49" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M49" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P49" t="n">
+        <v>72706</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>80</v>
+      </c>
+      <c r="R49" t="n">
+        <v>68</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C50" t="n">
+        <v>44</v>
+      </c>
+      <c r="D50" t="n">
+        <v>183</v>
+      </c>
+      <c r="E50" t="n">
+        <v>144</v>
+      </c>
+      <c r="K50" t="n">
+        <v>80</v>
+      </c>
+      <c r="L50" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>410581</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>42</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="n">
+        <v>44</v>
+      </c>
+      <c r="D51" t="n">
+        <v>183</v>
+      </c>
+      <c r="E51" t="n">
+        <v>144</v>
+      </c>
+      <c r="K51" t="n">
+        <v>80</v>
+      </c>
+      <c r="L51" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M51" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>417598</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>41</v>
+      </c>
+      <c r="R51" t="n">
+        <v>18</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C52" t="n">
+        <v>44</v>
+      </c>
+      <c r="D52" t="n">
+        <v>183</v>
+      </c>
+      <c r="E52" t="n">
+        <v>144</v>
+      </c>
+      <c r="K52" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M52" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>12</v>
+      </c>
+      <c r="P52" t="n">
+        <v>403521</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>43</v>
+      </c>
+      <c r="R52" t="n">
+        <v>24</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C53" t="n">
+        <v>44</v>
+      </c>
+      <c r="D53" t="n">
+        <v>183</v>
+      </c>
+      <c r="E53" t="n">
+        <v>144</v>
+      </c>
+      <c r="K53" t="n">
+        <v>80</v>
+      </c>
+      <c r="L53" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M53" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>431481</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>39</v>
+      </c>
+      <c r="R53" t="n">
+        <v>15</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C54" t="n">
+        <v>44</v>
+      </c>
+      <c r="D54" t="n">
+        <v>183</v>
+      </c>
+      <c r="E54" t="n">
+        <v>144</v>
+      </c>
+      <c r="K54" t="n">
+        <v>80</v>
+      </c>
+      <c r="L54" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M54" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>409298</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>42</v>
+      </c>
+      <c r="R54" t="n">
+        <v>14</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C55" t="n">
+        <v>44</v>
+      </c>
+      <c r="D55" t="n">
+        <v>183</v>
+      </c>
+      <c r="E55" t="n">
+        <v>144</v>
+      </c>
+      <c r="K55" t="n">
+        <v>40</v>
+      </c>
+      <c r="L55" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P55" t="n">
+        <v>71049</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>80</v>
+      </c>
+      <c r="R55" t="n">
+        <v>65</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C56" t="n">
+        <v>44</v>
+      </c>
+      <c r="D56" t="n">
+        <v>183</v>
+      </c>
+      <c r="E56" t="n">
+        <v>144</v>
+      </c>
+      <c r="K56" t="n">
+        <v>40</v>
+      </c>
+      <c r="L56" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M56" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O56" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P56" t="n">
+        <v>90025</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>75</v>
+      </c>
+      <c r="R56" t="n">
+        <v>58</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>14</v>
+      </c>
+      <c r="U56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="n">
+        <v>44</v>
+      </c>
+      <c r="D57" t="n">
+        <v>183</v>
+      </c>
+      <c r="E57" t="n">
+        <v>144</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40</v>
+      </c>
+      <c r="L57" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O57" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P57" t="n">
+        <v>82958</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>77</v>
+      </c>
+      <c r="R57" t="n">
+        <v>63</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="n">
+        <v>16</v>
+      </c>
+      <c r="U57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C58" t="n">
+        <v>44</v>
+      </c>
+      <c r="D58" t="n">
+        <v>183</v>
+      </c>
+      <c r="E58" t="n">
+        <v>144</v>
+      </c>
+      <c r="K58" t="n">
+        <v>40</v>
+      </c>
+      <c r="L58" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M58" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O58" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P58" t="n">
+        <v>99990</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>72</v>
+      </c>
+      <c r="R58" t="n">
+        <v>56</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>11</v>
+      </c>
+      <c r="U58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C59" t="n">
+        <v>44</v>
+      </c>
+      <c r="D59" t="n">
+        <v>183</v>
+      </c>
+      <c r="E59" t="n">
+        <v>144</v>
+      </c>
+      <c r="K59" t="n">
+        <v>40</v>
+      </c>
+      <c r="L59" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M59" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P59" t="n">
+        <v>72706</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>80</v>
+      </c>
+      <c r="R59" t="n">
+        <v>68</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="n">
+        <v>7</v>
+      </c>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="n">
+        <v>44</v>
+      </c>
+      <c r="D60" t="n">
+        <v>183</v>
+      </c>
+      <c r="E60" t="n">
+        <v>144</v>
+      </c>
+      <c r="K60" t="n">
+        <v>80</v>
+      </c>
+      <c r="L60" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>410581</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>42</v>
+      </c>
+      <c r="R60" t="n">
+        <v>14</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C61" t="n">
+        <v>44</v>
+      </c>
+      <c r="D61" t="n">
+        <v>183</v>
+      </c>
+      <c r="E61" t="n">
+        <v>144</v>
+      </c>
+      <c r="K61" t="n">
+        <v>80</v>
+      </c>
+      <c r="L61" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M61" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>417598</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>41</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44</v>
+      </c>
+      <c r="D62" t="n">
+        <v>183</v>
+      </c>
+      <c r="E62" t="n">
+        <v>144</v>
+      </c>
+      <c r="K62" t="n">
+        <v>80</v>
+      </c>
+      <c r="L62" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M62" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>12</v>
+      </c>
+      <c r="P62" t="n">
+        <v>403521</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>43</v>
+      </c>
+      <c r="R62" t="n">
+        <v>24</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C63" t="n">
+        <v>44</v>
+      </c>
+      <c r="D63" t="n">
+        <v>183</v>
+      </c>
+      <c r="E63" t="n">
+        <v>144</v>
+      </c>
+      <c r="K63" t="n">
+        <v>80</v>
+      </c>
+      <c r="L63" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M63" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>431481</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>39</v>
+      </c>
+      <c r="R63" t="n">
+        <v>15</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C64" t="n">
+        <v>44</v>
+      </c>
+      <c r="D64" t="n">
+        <v>183</v>
+      </c>
+      <c r="E64" t="n">
+        <v>144</v>
+      </c>
+      <c r="K64" t="n">
+        <v>80</v>
+      </c>
+      <c r="L64" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M64" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>409298</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>42</v>
+      </c>
+      <c r="R64" t="n">
+        <v>14</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C65" t="n">
+        <v>44</v>
+      </c>
+      <c r="D65" t="n">
+        <v>183</v>
+      </c>
+      <c r="E65" t="n">
+        <v>144</v>
+      </c>
+      <c r="K65" t="n">
+        <v>40</v>
+      </c>
+      <c r="L65" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M65" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O65" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P65" t="n">
+        <v>71049</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>80</v>
+      </c>
+      <c r="R65" t="n">
+        <v>65</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>7</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C66" t="n">
+        <v>44</v>
+      </c>
+      <c r="D66" t="n">
+        <v>183</v>
+      </c>
+      <c r="E66" t="n">
+        <v>144</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40</v>
+      </c>
+      <c r="L66" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M66" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O66" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P66" t="n">
+        <v>90025</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>75</v>
+      </c>
+      <c r="R66" t="n">
+        <v>58</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>14</v>
+      </c>
+      <c r="U66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C67" t="n">
+        <v>44</v>
+      </c>
+      <c r="D67" t="n">
+        <v>183</v>
+      </c>
+      <c r="E67" t="n">
+        <v>144</v>
+      </c>
+      <c r="K67" t="n">
+        <v>40</v>
+      </c>
+      <c r="L67" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M67" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O67" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P67" t="n">
+        <v>82958</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>77</v>
+      </c>
+      <c r="R67" t="n">
+        <v>63</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="n">
+        <v>16</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C68" t="n">
+        <v>44</v>
+      </c>
+      <c r="D68" t="n">
+        <v>183</v>
+      </c>
+      <c r="E68" t="n">
+        <v>144</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40</v>
+      </c>
+      <c r="L68" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M68" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P68" t="n">
+        <v>99990</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>72</v>
+      </c>
+      <c r="R68" t="n">
+        <v>56</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="n">
+        <v>11</v>
+      </c>
+      <c r="U68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C69" t="n">
+        <v>44</v>
+      </c>
+      <c r="D69" t="n">
+        <v>183</v>
+      </c>
+      <c r="E69" t="n">
+        <v>144</v>
+      </c>
+      <c r="K69" t="n">
+        <v>40</v>
+      </c>
+      <c r="L69" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M69" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P69" t="n">
+        <v>72706</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>80</v>
+      </c>
+      <c r="R69" t="n">
+        <v>68</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44</v>
+      </c>
+      <c r="D70" t="n">
+        <v>183</v>
+      </c>
+      <c r="E70" t="n">
+        <v>144</v>
+      </c>
+      <c r="K70" t="n">
+        <v>80</v>
+      </c>
+      <c r="L70" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M70" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>410581</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>42</v>
+      </c>
+      <c r="R70" t="n">
+        <v>14</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="n">
+        <v>44</v>
+      </c>
+      <c r="D71" t="n">
+        <v>183</v>
+      </c>
+      <c r="E71" t="n">
+        <v>144</v>
+      </c>
+      <c r="K71" t="n">
+        <v>80</v>
+      </c>
+      <c r="L71" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M71" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>417598</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>41</v>
+      </c>
+      <c r="R71" t="n">
+        <v>18</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C72" t="n">
+        <v>44</v>
+      </c>
+      <c r="D72" t="n">
+        <v>183</v>
+      </c>
+      <c r="E72" t="n">
+        <v>144</v>
+      </c>
+      <c r="K72" t="n">
+        <v>80</v>
+      </c>
+      <c r="L72" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12</v>
+      </c>
+      <c r="P72" t="n">
+        <v>403521</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>43</v>
+      </c>
+      <c r="R72" t="n">
+        <v>24</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C73" t="n">
+        <v>44</v>
+      </c>
+      <c r="D73" t="n">
+        <v>183</v>
+      </c>
+      <c r="E73" t="n">
+        <v>144</v>
+      </c>
+      <c r="K73" t="n">
+        <v>80</v>
+      </c>
+      <c r="L73" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M73" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>431481</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>39</v>
+      </c>
+      <c r="R73" t="n">
+        <v>15</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C74" t="n">
+        <v>44</v>
+      </c>
+      <c r="D74" t="n">
+        <v>183</v>
+      </c>
+      <c r="E74" t="n">
+        <v>144</v>
+      </c>
+      <c r="K74" t="n">
+        <v>80</v>
+      </c>
+      <c r="L74" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M74" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>409298</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>42</v>
+      </c>
+      <c r="R74" t="n">
+        <v>14</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C75" t="n">
+        <v>44</v>
+      </c>
+      <c r="D75" t="n">
+        <v>183</v>
+      </c>
+      <c r="E75" t="n">
+        <v>144</v>
+      </c>
+      <c r="K75" t="n">
+        <v>40</v>
+      </c>
+      <c r="L75" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M75" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4092</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9894</v>
+      </c>
+      <c r="P75" t="n">
+        <v>7604</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>80</v>
+      </c>
+      <c r="R75" t="n">
+        <v>65</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="n">
+        <v>7</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C76" t="n">
+        <v>44</v>
+      </c>
+      <c r="D76" t="n">
+        <v>183</v>
+      </c>
+      <c r="E76" t="n">
+        <v>144</v>
+      </c>
+      <c r="K76" t="n">
+        <v>40</v>
+      </c>
+      <c r="L76" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M76" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5116</v>
+      </c>
+      <c r="O76" t="n">
+        <v>20753</v>
+      </c>
+      <c r="P76" t="n">
+        <v>29499</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>75</v>
+      </c>
+      <c r="R76" t="n">
+        <v>58</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="n">
+        <v>14</v>
+      </c>
+      <c r="U76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C77" t="n">
+        <v>44</v>
+      </c>
+      <c r="D77" t="n">
+        <v>183</v>
+      </c>
+      <c r="E77" t="n">
+        <v>144</v>
+      </c>
+      <c r="K77" t="n">
+        <v>40</v>
+      </c>
+      <c r="L77" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M77" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4078</v>
+      </c>
+      <c r="O77" t="n">
+        <v>30513</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2244</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>77</v>
+      </c>
+      <c r="R77" t="n">
+        <v>63</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>16</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C78" t="n">
+        <v>44</v>
+      </c>
+      <c r="D78" t="n">
+        <v>183</v>
+      </c>
+      <c r="E78" t="n">
+        <v>144</v>
+      </c>
+      <c r="K78" t="n">
+        <v>40</v>
+      </c>
+      <c r="L78" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M78" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4536</v>
+      </c>
+      <c r="O78" t="n">
+        <v>16324</v>
+      </c>
+      <c r="P78" t="n">
+        <v>42867</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>72</v>
+      </c>
+      <c r="R78" t="n">
+        <v>56</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>11</v>
+      </c>
+      <c r="U78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C79" t="n">
+        <v>44</v>
+      </c>
+      <c r="D79" t="n">
+        <v>183</v>
+      </c>
+      <c r="E79" t="n">
+        <v>144</v>
+      </c>
+      <c r="K79" t="n">
+        <v>40</v>
+      </c>
+      <c r="L79" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M79" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5633</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9807</v>
+      </c>
+      <c r="P79" t="n">
+        <v>8602</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>80</v>
+      </c>
+      <c r="R79" t="n">
+        <v>68</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>7</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C80" t="n">
+        <v>44</v>
+      </c>
+      <c r="D80" t="n">
+        <v>183</v>
+      </c>
+      <c r="E80" t="n">
+        <v>144</v>
+      </c>
+      <c r="K80" t="n">
+        <v>80</v>
+      </c>
+      <c r="L80" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M80" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>393383</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>42</v>
+      </c>
+      <c r="R80" t="n">
+        <v>14</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C81" t="n">
+        <v>44</v>
+      </c>
+      <c r="D81" t="n">
+        <v>183</v>
+      </c>
+      <c r="E81" t="n">
+        <v>144</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80</v>
+      </c>
+      <c r="L81" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M81" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>391106</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>41</v>
+      </c>
+      <c r="R81" t="n">
+        <v>18</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C82" t="n">
+        <v>44</v>
+      </c>
+      <c r="D82" t="n">
+        <v>183</v>
+      </c>
+      <c r="E82" t="n">
+        <v>144</v>
+      </c>
+      <c r="K82" t="n">
+        <v>80</v>
+      </c>
+      <c r="L82" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M82" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="n">
+        <v>12</v>
+      </c>
+      <c r="P82" t="n">
+        <v>359009</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>43</v>
+      </c>
+      <c r="R82" t="n">
+        <v>24</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C83" t="n">
+        <v>44</v>
+      </c>
+      <c r="D83" t="n">
+        <v>183</v>
+      </c>
+      <c r="E83" t="n">
+        <v>144</v>
+      </c>
+      <c r="K83" t="n">
+        <v>80</v>
+      </c>
+      <c r="L83" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M83" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>413149</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>39</v>
+      </c>
+      <c r="R83" t="n">
+        <v>15</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C84" t="n">
+        <v>44</v>
+      </c>
+      <c r="D84" t="n">
+        <v>183</v>
+      </c>
+      <c r="E84" t="n">
+        <v>144</v>
+      </c>
+      <c r="K84" t="n">
+        <v>80</v>
+      </c>
+      <c r="L84" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M84" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>395751</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>42</v>
+      </c>
+      <c r="R84" t="n">
+        <v>14</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C85" t="n">
+        <v>44</v>
+      </c>
+      <c r="D85" t="n">
+        <v>183</v>
+      </c>
+      <c r="E85" t="n">
+        <v>144</v>
+      </c>
+      <c r="K85" t="n">
+        <v>40</v>
+      </c>
+      <c r="L85" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M85" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O85" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P85" t="n">
+        <v>17940</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>79</v>
+      </c>
+      <c r="R85" t="n">
+        <v>62</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C86" t="n">
+        <v>44</v>
+      </c>
+      <c r="D86" t="n">
+        <v>183</v>
+      </c>
+      <c r="E86" t="n">
+        <v>144</v>
+      </c>
+      <c r="K86" t="n">
+        <v>40</v>
+      </c>
+      <c r="L86" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M86" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O86" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P86" t="n">
+        <v>37107</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>74</v>
+      </c>
+      <c r="R86" t="n">
+        <v>56</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10</v>
+      </c>
+      <c r="U86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C87" t="n">
+        <v>44</v>
+      </c>
+      <c r="D87" t="n">
+        <v>183</v>
+      </c>
+      <c r="E87" t="n">
+        <v>144</v>
+      </c>
+      <c r="K87" t="n">
+        <v>40</v>
+      </c>
+      <c r="L87" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M87" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O87" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P87" t="n">
+        <v>12599</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>75</v>
+      </c>
+      <c r="R87" t="n">
+        <v>60</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="n">
+        <v>12</v>
+      </c>
+      <c r="U87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C88" t="n">
+        <v>44</v>
+      </c>
+      <c r="D88" t="n">
+        <v>183</v>
+      </c>
+      <c r="E88" t="n">
+        <v>144</v>
+      </c>
+      <c r="K88" t="n">
+        <v>40</v>
+      </c>
+      <c r="L88" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M88" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O88" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P88" t="n">
+        <v>51425</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>71</v>
+      </c>
+      <c r="R88" t="n">
+        <v>54</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="n">
+        <v>8</v>
+      </c>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C89" t="n">
+        <v>44</v>
+      </c>
+      <c r="D89" t="n">
+        <v>183</v>
+      </c>
+      <c r="E89" t="n">
+        <v>144</v>
+      </c>
+      <c r="K89" t="n">
+        <v>40</v>
+      </c>
+      <c r="L89" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M89" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O89" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P89" t="n">
+        <v>20942</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>78</v>
+      </c>
+      <c r="R89" t="n">
+        <v>64</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C90" t="n">
+        <v>44</v>
+      </c>
+      <c r="D90" t="n">
+        <v>183</v>
+      </c>
+      <c r="E90" t="n">
+        <v>144</v>
+      </c>
+      <c r="K90" t="n">
+        <v>80</v>
+      </c>
+      <c r="L90" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M90" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>397722</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>42</v>
+      </c>
+      <c r="R90" t="n">
+        <v>14</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C91" t="n">
+        <v>44</v>
+      </c>
+      <c r="D91" t="n">
+        <v>183</v>
+      </c>
+      <c r="E91" t="n">
+        <v>144</v>
+      </c>
+      <c r="K91" t="n">
+        <v>80</v>
+      </c>
+      <c r="L91" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M91" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>398591</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>40</v>
+      </c>
+      <c r="R91" t="n">
+        <v>17</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C92" t="n">
+        <v>44</v>
+      </c>
+      <c r="D92" t="n">
+        <v>183</v>
+      </c>
+      <c r="E92" t="n">
+        <v>144</v>
+      </c>
+      <c r="K92" t="n">
+        <v>80</v>
+      </c>
+      <c r="L92" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M92" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>371200</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>42</v>
+      </c>
+      <c r="R92" t="n">
+        <v>23</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C93" t="n">
+        <v>44</v>
+      </c>
+      <c r="D93" t="n">
+        <v>183</v>
+      </c>
+      <c r="E93" t="n">
+        <v>144</v>
+      </c>
+      <c r="K93" t="n">
+        <v>80</v>
+      </c>
+      <c r="L93" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M93" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>418124</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>39</v>
+      </c>
+      <c r="R93" t="n">
+        <v>14</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C94" t="n">
+        <v>44</v>
+      </c>
+      <c r="D94" t="n">
+        <v>183</v>
+      </c>
+      <c r="E94" t="n">
+        <v>144</v>
+      </c>
+      <c r="K94" t="n">
+        <v>80</v>
+      </c>
+      <c r="L94" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M94" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>399129</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>42</v>
+      </c>
+      <c r="R94" t="n">
+        <v>13</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C95" t="n">
+        <v>44</v>
+      </c>
+      <c r="D95" t="n">
+        <v>183</v>
+      </c>
+      <c r="E95" t="n">
+        <v>144</v>
+      </c>
+      <c r="K95" t="n">
+        <v>40</v>
+      </c>
+      <c r="L95" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M95" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O95" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P95" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>79</v>
+      </c>
+      <c r="R95" t="n">
+        <v>62</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C96" t="n">
+        <v>44</v>
+      </c>
+      <c r="D96" t="n">
+        <v>183</v>
+      </c>
+      <c r="E96" t="n">
+        <v>144</v>
+      </c>
+      <c r="K96" t="n">
+        <v>40</v>
+      </c>
+      <c r="L96" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M96" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O96" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P96" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>74</v>
+      </c>
+      <c r="R96" t="n">
+        <v>56</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10</v>
+      </c>
+      <c r="U96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C97" t="n">
+        <v>44</v>
+      </c>
+      <c r="D97" t="n">
+        <v>183</v>
+      </c>
+      <c r="E97" t="n">
+        <v>144</v>
+      </c>
+      <c r="K97" t="n">
+        <v>40</v>
+      </c>
+      <c r="L97" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M97" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O97" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P97" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>75</v>
+      </c>
+      <c r="R97" t="n">
+        <v>60</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>12</v>
+      </c>
+      <c r="U97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C98" t="n">
+        <v>44</v>
+      </c>
+      <c r="D98" t="n">
+        <v>183</v>
+      </c>
+      <c r="E98" t="n">
+        <v>144</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40</v>
+      </c>
+      <c r="L98" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M98" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O98" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P98" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>71</v>
+      </c>
+      <c r="R98" t="n">
+        <v>54</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>8</v>
+      </c>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C99" t="n">
+        <v>44</v>
+      </c>
+      <c r="D99" t="n">
+        <v>183</v>
+      </c>
+      <c r="E99" t="n">
+        <v>144</v>
+      </c>
+      <c r="K99" t="n">
+        <v>40</v>
+      </c>
+      <c r="L99" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M99" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O99" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P99" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>78</v>
+      </c>
+      <c r="R99" t="n">
+        <v>64</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="n">
+        <v>5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C100" t="n">
+        <v>44</v>
+      </c>
+      <c r="D100" t="n">
+        <v>183</v>
+      </c>
+      <c r="E100" t="n">
+        <v>144</v>
+      </c>
+      <c r="K100" t="n">
+        <v>80</v>
+      </c>
+      <c r="L100" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M100" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>42</v>
+      </c>
+      <c r="R100" t="n">
+        <v>14</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C101" t="n">
+        <v>44</v>
+      </c>
+      <c r="D101" t="n">
+        <v>183</v>
+      </c>
+      <c r="E101" t="n">
+        <v>144</v>
+      </c>
+      <c r="K101" t="n">
+        <v>80</v>
+      </c>
+      <c r="L101" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M101" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>40</v>
+      </c>
+      <c r="R101" t="n">
+        <v>17</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C102" t="n">
+        <v>44</v>
+      </c>
+      <c r="D102" t="n">
+        <v>183</v>
+      </c>
+      <c r="E102" t="n">
+        <v>144</v>
+      </c>
+      <c r="K102" t="n">
+        <v>80</v>
+      </c>
+      <c r="L102" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M102" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>42</v>
+      </c>
+      <c r="R102" t="n">
+        <v>23</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C103" t="n">
+        <v>44</v>
+      </c>
+      <c r="D103" t="n">
+        <v>183</v>
+      </c>
+      <c r="E103" t="n">
+        <v>144</v>
+      </c>
+      <c r="K103" t="n">
+        <v>80</v>
+      </c>
+      <c r="L103" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M103" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>39</v>
+      </c>
+      <c r="R103" t="n">
+        <v>14</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C104" t="n">
+        <v>44</v>
+      </c>
+      <c r="D104" t="n">
+        <v>183</v>
+      </c>
+      <c r="E104" t="n">
+        <v>144</v>
+      </c>
+      <c r="K104" t="n">
+        <v>80</v>
+      </c>
+      <c r="L104" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M104" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>42</v>
+      </c>
+      <c r="R104" t="n">
+        <v>13</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C105" t="n">
+        <v>44</v>
+      </c>
+      <c r="D105" t="n">
+        <v>183</v>
+      </c>
+      <c r="E105" t="n">
+        <v>144</v>
+      </c>
+      <c r="K105" t="n">
+        <v>40</v>
+      </c>
+      <c r="L105" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M105" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O105" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P105" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>79</v>
+      </c>
+      <c r="R105" t="n">
+        <v>62</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="n">
+        <v>5</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C106" t="n">
+        <v>44</v>
+      </c>
+      <c r="D106" t="n">
+        <v>183</v>
+      </c>
+      <c r="E106" t="n">
+        <v>144</v>
+      </c>
+      <c r="K106" t="n">
+        <v>40</v>
+      </c>
+      <c r="L106" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M106" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O106" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P106" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>74</v>
+      </c>
+      <c r="R106" t="n">
+        <v>56</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="n">
+        <v>10</v>
+      </c>
+      <c r="U106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C107" t="n">
+        <v>44</v>
+      </c>
+      <c r="D107" t="n">
+        <v>183</v>
+      </c>
+      <c r="E107" t="n">
+        <v>144</v>
+      </c>
+      <c r="K107" t="n">
+        <v>40</v>
+      </c>
+      <c r="L107" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M107" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O107" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P107" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>75</v>
+      </c>
+      <c r="R107" t="n">
+        <v>60</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="n">
+        <v>12</v>
+      </c>
+      <c r="U107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C108" t="n">
+        <v>44</v>
+      </c>
+      <c r="D108" t="n">
+        <v>183</v>
+      </c>
+      <c r="E108" t="n">
+        <v>144</v>
+      </c>
+      <c r="K108" t="n">
+        <v>40</v>
+      </c>
+      <c r="L108" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M108" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O108" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P108" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>71</v>
+      </c>
+      <c r="R108" t="n">
+        <v>54</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="n">
+        <v>8</v>
+      </c>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C109" t="n">
+        <v>44</v>
+      </c>
+      <c r="D109" t="n">
+        <v>183</v>
+      </c>
+      <c r="E109" t="n">
+        <v>144</v>
+      </c>
+      <c r="K109" t="n">
+        <v>40</v>
+      </c>
+      <c r="L109" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M109" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O109" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P109" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>78</v>
+      </c>
+      <c r="R109" t="n">
+        <v>64</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="n">
+        <v>5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C110" t="n">
+        <v>44</v>
+      </c>
+      <c r="D110" t="n">
+        <v>183</v>
+      </c>
+      <c r="E110" t="n">
+        <v>144</v>
+      </c>
+      <c r="K110" t="n">
+        <v>80</v>
+      </c>
+      <c r="L110" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M110" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>42</v>
+      </c>
+      <c r="R110" t="n">
+        <v>14</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C111" t="n">
+        <v>44</v>
+      </c>
+      <c r="D111" t="n">
+        <v>183</v>
+      </c>
+      <c r="E111" t="n">
+        <v>144</v>
+      </c>
+      <c r="K111" t="n">
+        <v>80</v>
+      </c>
+      <c r="L111" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M111" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>40</v>
+      </c>
+      <c r="R111" t="n">
+        <v>17</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C112" t="n">
+        <v>44</v>
+      </c>
+      <c r="D112" t="n">
+        <v>183</v>
+      </c>
+      <c r="E112" t="n">
+        <v>144</v>
+      </c>
+      <c r="K112" t="n">
+        <v>80</v>
+      </c>
+      <c r="L112" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M112" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>42</v>
+      </c>
+      <c r="R112" t="n">
+        <v>23</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C113" t="n">
+        <v>44</v>
+      </c>
+      <c r="D113" t="n">
+        <v>183</v>
+      </c>
+      <c r="E113" t="n">
+        <v>144</v>
+      </c>
+      <c r="K113" t="n">
+        <v>80</v>
+      </c>
+      <c r="L113" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M113" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>39</v>
+      </c>
+      <c r="R113" t="n">
+        <v>14</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44</v>
+      </c>
+      <c r="D114" t="n">
+        <v>183</v>
+      </c>
+      <c r="E114" t="n">
+        <v>144</v>
+      </c>
+      <c r="K114" t="n">
+        <v>80</v>
+      </c>
+      <c r="L114" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M114" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>42</v>
+      </c>
+      <c r="R114" t="n">
+        <v>13</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C115" t="n">
+        <v>44</v>
+      </c>
+      <c r="D115" t="n">
+        <v>183</v>
+      </c>
+      <c r="E115" t="n">
+        <v>144</v>
+      </c>
+      <c r="K115" t="n">
+        <v>40</v>
+      </c>
+      <c r="L115" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M115" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O115" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P115" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>79</v>
+      </c>
+      <c r="R115" t="n">
+        <v>62</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C116" t="n">
+        <v>44</v>
+      </c>
+      <c r="D116" t="n">
+        <v>183</v>
+      </c>
+      <c r="E116" t="n">
+        <v>144</v>
+      </c>
+      <c r="K116" t="n">
+        <v>40</v>
+      </c>
+      <c r="L116" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M116" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O116" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P116" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>74</v>
+      </c>
+      <c r="R116" t="n">
+        <v>56</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3</v>
+      </c>
+      <c r="T116" t="n">
+        <v>10</v>
+      </c>
+      <c r="U116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C117" t="n">
+        <v>44</v>
+      </c>
+      <c r="D117" t="n">
+        <v>183</v>
+      </c>
+      <c r="E117" t="n">
+        <v>144</v>
+      </c>
+      <c r="K117" t="n">
+        <v>40</v>
+      </c>
+      <c r="L117" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M117" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O117" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P117" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>75</v>
+      </c>
+      <c r="R117" t="n">
+        <v>60</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3</v>
+      </c>
+      <c r="T117" t="n">
+        <v>12</v>
+      </c>
+      <c r="U117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C118" t="n">
+        <v>44</v>
+      </c>
+      <c r="D118" t="n">
+        <v>183</v>
+      </c>
+      <c r="E118" t="n">
+        <v>144</v>
+      </c>
+      <c r="K118" t="n">
+        <v>40</v>
+      </c>
+      <c r="L118" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M118" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O118" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P118" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>71</v>
+      </c>
+      <c r="R118" t="n">
+        <v>54</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3</v>
+      </c>
+      <c r="T118" t="n">
+        <v>8</v>
+      </c>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C119" t="n">
+        <v>44</v>
+      </c>
+      <c r="D119" t="n">
+        <v>183</v>
+      </c>
+      <c r="E119" t="n">
+        <v>144</v>
+      </c>
+      <c r="K119" t="n">
+        <v>40</v>
+      </c>
+      <c r="L119" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M119" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O119" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P119" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>78</v>
+      </c>
+      <c r="R119" t="n">
+        <v>64</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C120" t="n">
+        <v>44</v>
+      </c>
+      <c r="D120" t="n">
+        <v>183</v>
+      </c>
+      <c r="E120" t="n">
+        <v>144</v>
+      </c>
+      <c r="K120" t="n">
+        <v>80</v>
+      </c>
+      <c r="L120" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M120" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>42</v>
+      </c>
+      <c r="R120" t="n">
+        <v>14</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C121" t="n">
+        <v>44</v>
+      </c>
+      <c r="D121" t="n">
+        <v>183</v>
+      </c>
+      <c r="E121" t="n">
+        <v>144</v>
+      </c>
+      <c r="K121" t="n">
+        <v>80</v>
+      </c>
+      <c r="L121" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M121" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>40</v>
+      </c>
+      <c r="R121" t="n">
+        <v>17</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C122" t="n">
+        <v>44</v>
+      </c>
+      <c r="D122" t="n">
+        <v>183</v>
+      </c>
+      <c r="E122" t="n">
+        <v>144</v>
+      </c>
+      <c r="K122" t="n">
+        <v>80</v>
+      </c>
+      <c r="L122" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M122" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>42</v>
+      </c>
+      <c r="R122" t="n">
+        <v>23</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C123" t="n">
+        <v>44</v>
+      </c>
+      <c r="D123" t="n">
+        <v>183</v>
+      </c>
+      <c r="E123" t="n">
+        <v>144</v>
+      </c>
+      <c r="K123" t="n">
+        <v>80</v>
+      </c>
+      <c r="L123" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M123" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>39</v>
+      </c>
+      <c r="R123" t="n">
+        <v>14</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44</v>
+      </c>
+      <c r="D124" t="n">
+        <v>183</v>
+      </c>
+      <c r="E124" t="n">
+        <v>144</v>
+      </c>
+      <c r="K124" t="n">
+        <v>80</v>
+      </c>
+      <c r="L124" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M124" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>42</v>
+      </c>
+      <c r="R124" t="n">
+        <v>13</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44</v>
+      </c>
+      <c r="D125" t="n">
+        <v>183</v>
+      </c>
+      <c r="E125" t="n">
+        <v>144</v>
+      </c>
+      <c r="K125" t="n">
+        <v>40</v>
+      </c>
+      <c r="L125" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M125" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O125" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P125" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>79</v>
+      </c>
+      <c r="R125" t="n">
+        <v>62</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2</v>
+      </c>
+      <c r="T125" t="n">
+        <v>5</v>
+      </c>
+      <c r="U125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44</v>
+      </c>
+      <c r="D126" t="n">
+        <v>183</v>
+      </c>
+      <c r="E126" t="n">
+        <v>144</v>
+      </c>
+      <c r="K126" t="n">
+        <v>40</v>
+      </c>
+      <c r="L126" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M126" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O126" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P126" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>74</v>
+      </c>
+      <c r="R126" t="n">
+        <v>56</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3</v>
+      </c>
+      <c r="T126" t="n">
+        <v>10</v>
+      </c>
+      <c r="U126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44</v>
+      </c>
+      <c r="D127" t="n">
+        <v>183</v>
+      </c>
+      <c r="E127" t="n">
+        <v>144</v>
+      </c>
+      <c r="K127" t="n">
+        <v>40</v>
+      </c>
+      <c r="L127" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M127" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O127" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P127" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>75</v>
+      </c>
+      <c r="R127" t="n">
+        <v>60</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3</v>
+      </c>
+      <c r="T127" t="n">
+        <v>12</v>
+      </c>
+      <c r="U127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44</v>
+      </c>
+      <c r="D128" t="n">
+        <v>183</v>
+      </c>
+      <c r="E128" t="n">
+        <v>144</v>
+      </c>
+      <c r="K128" t="n">
+        <v>40</v>
+      </c>
+      <c r="L128" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M128" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O128" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P128" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>71</v>
+      </c>
+      <c r="R128" t="n">
+        <v>54</v>
+      </c>
+      <c r="S128" t="n">
+        <v>3</v>
+      </c>
+      <c r="T128" t="n">
+        <v>8</v>
+      </c>
+      <c r="U128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44</v>
+      </c>
+      <c r="D129" t="n">
+        <v>183</v>
+      </c>
+      <c r="E129" t="n">
+        <v>144</v>
+      </c>
+      <c r="K129" t="n">
+        <v>40</v>
+      </c>
+      <c r="L129" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M129" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O129" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P129" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>78</v>
+      </c>
+      <c r="R129" t="n">
+        <v>64</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3</v>
+      </c>
+      <c r="T129" t="n">
+        <v>5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C130" t="n">
+        <v>44</v>
+      </c>
+      <c r="D130" t="n">
+        <v>183</v>
+      </c>
+      <c r="E130" t="n">
+        <v>144</v>
+      </c>
+      <c r="K130" t="n">
+        <v>80</v>
+      </c>
+      <c r="L130" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M130" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>42</v>
+      </c>
+      <c r="R130" t="n">
+        <v>14</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44</v>
+      </c>
+      <c r="D131" t="n">
+        <v>183</v>
+      </c>
+      <c r="E131" t="n">
+        <v>144</v>
+      </c>
+      <c r="K131" t="n">
+        <v>80</v>
+      </c>
+      <c r="L131" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M131" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>40</v>
+      </c>
+      <c r="R131" t="n">
+        <v>17</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C132" t="n">
+        <v>44</v>
+      </c>
+      <c r="D132" t="n">
+        <v>183</v>
+      </c>
+      <c r="E132" t="n">
+        <v>144</v>
+      </c>
+      <c r="K132" t="n">
+        <v>80</v>
+      </c>
+      <c r="L132" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M132" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>42</v>
+      </c>
+      <c r="R132" t="n">
+        <v>23</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C133" t="n">
+        <v>44</v>
+      </c>
+      <c r="D133" t="n">
+        <v>183</v>
+      </c>
+      <c r="E133" t="n">
+        <v>144</v>
+      </c>
+      <c r="K133" t="n">
+        <v>80</v>
+      </c>
+      <c r="L133" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M133" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>39</v>
+      </c>
+      <c r="R133" t="n">
+        <v>14</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C134" t="n">
+        <v>44</v>
+      </c>
+      <c r="D134" t="n">
+        <v>183</v>
+      </c>
+      <c r="E134" t="n">
+        <v>144</v>
+      </c>
+      <c r="K134" t="n">
+        <v>80</v>
+      </c>
+      <c r="L134" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M134" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>42</v>
+      </c>
+      <c r="R134" t="n">
+        <v>13</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C135" t="n">
+        <v>44</v>
+      </c>
+      <c r="D135" t="n">
+        <v>183</v>
+      </c>
+      <c r="E135" t="n">
+        <v>144</v>
+      </c>
+      <c r="K135" t="n">
+        <v>40</v>
+      </c>
+      <c r="L135" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M135" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O135" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P135" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>79</v>
+      </c>
+      <c r="R135" t="n">
+        <v>62</v>
+      </c>
+      <c r="S135" t="n">
+        <v>2</v>
+      </c>
+      <c r="T135" t="n">
+        <v>5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C136" t="n">
+        <v>44</v>
+      </c>
+      <c r="D136" t="n">
+        <v>183</v>
+      </c>
+      <c r="E136" t="n">
+        <v>144</v>
+      </c>
+      <c r="K136" t="n">
+        <v>40</v>
+      </c>
+      <c r="L136" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M136" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O136" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P136" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>74</v>
+      </c>
+      <c r="R136" t="n">
+        <v>56</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3</v>
+      </c>
+      <c r="T136" t="n">
+        <v>10</v>
+      </c>
+      <c r="U136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C137" t="n">
+        <v>44</v>
+      </c>
+      <c r="D137" t="n">
+        <v>183</v>
+      </c>
+      <c r="E137" t="n">
+        <v>144</v>
+      </c>
+      <c r="K137" t="n">
+        <v>40</v>
+      </c>
+      <c r="L137" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M137" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O137" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P137" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>75</v>
+      </c>
+      <c r="R137" t="n">
+        <v>60</v>
+      </c>
+      <c r="S137" t="n">
+        <v>3</v>
+      </c>
+      <c r="T137" t="n">
+        <v>12</v>
+      </c>
+      <c r="U137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C138" t="n">
+        <v>44</v>
+      </c>
+      <c r="D138" t="n">
+        <v>183</v>
+      </c>
+      <c r="E138" t="n">
+        <v>144</v>
+      </c>
+      <c r="K138" t="n">
+        <v>40</v>
+      </c>
+      <c r="L138" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M138" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O138" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P138" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>71</v>
+      </c>
+      <c r="R138" t="n">
+        <v>54</v>
+      </c>
+      <c r="S138" t="n">
+        <v>3</v>
+      </c>
+      <c r="T138" t="n">
+        <v>8</v>
+      </c>
+      <c r="U138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C139" t="n">
+        <v>44</v>
+      </c>
+      <c r="D139" t="n">
+        <v>183</v>
+      </c>
+      <c r="E139" t="n">
+        <v>144</v>
+      </c>
+      <c r="K139" t="n">
+        <v>40</v>
+      </c>
+      <c r="L139" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M139" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O139" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P139" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>78</v>
+      </c>
+      <c r="R139" t="n">
+        <v>64</v>
+      </c>
+      <c r="S139" t="n">
+        <v>3</v>
+      </c>
+      <c r="T139" t="n">
+        <v>5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C140" t="n">
+        <v>44</v>
+      </c>
+      <c r="D140" t="n">
+        <v>183</v>
+      </c>
+      <c r="E140" t="n">
+        <v>144</v>
+      </c>
+      <c r="K140" t="n">
+        <v>80</v>
+      </c>
+      <c r="L140" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M140" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>42</v>
+      </c>
+      <c r="R140" t="n">
+        <v>14</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="n">
+        <v>44</v>
+      </c>
+      <c r="D141" t="n">
+        <v>183</v>
+      </c>
+      <c r="E141" t="n">
+        <v>144</v>
+      </c>
+      <c r="K141" t="n">
+        <v>80</v>
+      </c>
+      <c r="L141" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M141" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>40</v>
+      </c>
+      <c r="R141" t="n">
+        <v>17</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C142" t="n">
+        <v>44</v>
+      </c>
+      <c r="D142" t="n">
+        <v>183</v>
+      </c>
+      <c r="E142" t="n">
+        <v>144</v>
+      </c>
+      <c r="K142" t="n">
+        <v>80</v>
+      </c>
+      <c r="L142" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M142" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>42</v>
+      </c>
+      <c r="R142" t="n">
+        <v>23</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C143" t="n">
+        <v>44</v>
+      </c>
+      <c r="D143" t="n">
+        <v>183</v>
+      </c>
+      <c r="E143" t="n">
+        <v>144</v>
+      </c>
+      <c r="K143" t="n">
+        <v>80</v>
+      </c>
+      <c r="L143" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M143" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>39</v>
+      </c>
+      <c r="R143" t="n">
+        <v>14</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C144" t="n">
+        <v>44</v>
+      </c>
+      <c r="D144" t="n">
+        <v>183</v>
+      </c>
+      <c r="E144" t="n">
+        <v>144</v>
+      </c>
+      <c r="K144" t="n">
+        <v>80</v>
+      </c>
+      <c r="L144" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M144" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>42</v>
+      </c>
+      <c r="R144" t="n">
+        <v>13</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C145" t="n">
+        <v>44</v>
+      </c>
+      <c r="D145" t="n">
+        <v>183</v>
+      </c>
+      <c r="E145" t="n">
+        <v>144</v>
+      </c>
+      <c r="K145" t="n">
+        <v>40</v>
+      </c>
+      <c r="L145" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M145" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3006</v>
+      </c>
+      <c r="O145" t="n">
+        <v>6454</v>
+      </c>
+      <c r="P145" t="n">
+        <v>76395</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>79</v>
+      </c>
+      <c r="R145" t="n">
+        <v>62</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2</v>
+      </c>
+      <c r="T145" t="n">
+        <v>5</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C146" t="n">
+        <v>44</v>
+      </c>
+      <c r="D146" t="n">
+        <v>183</v>
+      </c>
+      <c r="E146" t="n">
+        <v>144</v>
+      </c>
+      <c r="K146" t="n">
+        <v>40</v>
+      </c>
+      <c r="L146" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M146" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4187</v>
+      </c>
+      <c r="O146" t="n">
+        <v>15994</v>
+      </c>
+      <c r="P146" t="n">
+        <v>94051</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>74</v>
+      </c>
+      <c r="R146" t="n">
+        <v>56</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3</v>
+      </c>
+      <c r="T146" t="n">
+        <v>10</v>
+      </c>
+      <c r="U146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C147" t="n">
+        <v>44</v>
+      </c>
+      <c r="D147" t="n">
+        <v>183</v>
+      </c>
+      <c r="E147" t="n">
+        <v>144</v>
+      </c>
+      <c r="K147" t="n">
+        <v>40</v>
+      </c>
+      <c r="L147" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M147" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3137</v>
+      </c>
+      <c r="O147" t="n">
+        <v>23264</v>
+      </c>
+      <c r="P147" t="n">
+        <v>89057</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>75</v>
+      </c>
+      <c r="R147" t="n">
+        <v>60</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3</v>
+      </c>
+      <c r="T147" t="n">
+        <v>12</v>
+      </c>
+      <c r="U147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C148" t="n">
+        <v>44</v>
+      </c>
+      <c r="D148" t="n">
+        <v>183</v>
+      </c>
+      <c r="E148" t="n">
+        <v>144</v>
+      </c>
+      <c r="K148" t="n">
+        <v>40</v>
+      </c>
+      <c r="L148" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M148" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3764</v>
+      </c>
+      <c r="O148" t="n">
+        <v>12498</v>
+      </c>
+      <c r="P148" t="n">
+        <v>104505</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>71</v>
+      </c>
+      <c r="R148" t="n">
+        <v>54</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3</v>
+      </c>
+      <c r="T148" t="n">
+        <v>8</v>
+      </c>
+      <c r="U148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C149" t="n">
+        <v>44</v>
+      </c>
+      <c r="D149" t="n">
+        <v>183</v>
+      </c>
+      <c r="E149" t="n">
+        <v>144</v>
+      </c>
+      <c r="K149" t="n">
+        <v>40</v>
+      </c>
+      <c r="L149" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M149" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O149" t="n">
+        <v>7070</v>
+      </c>
+      <c r="P149" t="n">
+        <v>79292</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>78</v>
+      </c>
+      <c r="R149" t="n">
+        <v>64</v>
+      </c>
+      <c r="S149" t="n">
+        <v>3</v>
+      </c>
+      <c r="T149" t="n">
+        <v>5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C150" t="n">
+        <v>44</v>
+      </c>
+      <c r="D150" t="n">
+        <v>183</v>
+      </c>
+      <c r="E150" t="n">
+        <v>144</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>80</v>
+      </c>
+      <c r="L150" t="n">
+        <v>158400</v>
+      </c>
+      <c r="M150" t="n">
+        <v>137483</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>412512</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>42</v>
+      </c>
+      <c r="R150" t="n">
+        <v>14</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C151" t="n">
+        <v>44</v>
+      </c>
+      <c r="D151" t="n">
+        <v>183</v>
+      </c>
+      <c r="E151" t="n">
+        <v>144</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>80</v>
+      </c>
+      <c r="L151" t="n">
+        <v>134772</v>
+      </c>
+      <c r="M151" t="n">
+        <v>152631</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>421374</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>40</v>
+      </c>
+      <c r="R151" t="n">
+        <v>17</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C152" t="n">
+        <v>44</v>
+      </c>
+      <c r="D152" t="n">
+        <v>183</v>
+      </c>
+      <c r="E152" t="n">
+        <v>144</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>80</v>
+      </c>
+      <c r="L152" t="n">
+        <v>106480</v>
+      </c>
+      <c r="M152" t="n">
+        <v>196762</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>409492</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>42</v>
+      </c>
+      <c r="R152" t="n">
+        <v>23</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C153" t="n">
+        <v>44</v>
+      </c>
+      <c r="D153" t="n">
+        <v>183</v>
+      </c>
+      <c r="E153" t="n">
+        <v>144</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>80</v>
+      </c>
+      <c r="L153" t="n">
+        <v>123200</v>
+      </c>
+      <c r="M153" t="n">
+        <v>149656</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>433889</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>39</v>
+      </c>
+      <c r="R153" t="n">
+        <v>14</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C154" t="n">
+        <v>44</v>
+      </c>
+      <c r="D154" t="n">
+        <v>183</v>
+      </c>
+      <c r="E154" t="n">
+        <v>144</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>80</v>
+      </c>
+      <c r="L154" t="n">
+        <v>145200</v>
+      </c>
+      <c r="M154" t="n">
+        <v>150085</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>410779</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>42</v>
+      </c>
+      <c r="R154" t="n">
+        <v>13</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Simulator output.xlsx
+++ b/data/Simulator output.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="81" workbookViewId="0">
       <selection activeCell="G184" sqref="G184"/>
@@ -1858,6 +1858,756 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60.35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.69231955828779</v>
+      </c>
+      <c r="I20" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8732</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8784</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41</v>
+      </c>
+      <c r="N20" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="O20" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="P20" t="n">
+        <v>351360</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>133187</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-132674.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>158400</v>
+      </c>
+      <c r="U20" t="n">
+        <v>137483</v>
+      </c>
+      <c r="V20" t="n">
+        <v>44921</v>
+      </c>
+      <c r="W20" t="n">
+        <v>61599</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18406</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>56452</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="G21" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="H21" t="n">
+        <v>86.7317895878525</v>
+      </c>
+      <c r="I21" t="n">
+        <v>96.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8243</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8759</v>
+      </c>
+      <c r="L21" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="M21" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="N21" t="n">
+        <v>62.48</v>
+      </c>
+      <c r="O21" t="n">
+        <v>81.34</v>
+      </c>
+      <c r="P21" t="n">
+        <v>350360</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="R21" t="n">
+        <v>146871</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-133302.95</v>
+      </c>
+      <c r="T21" t="n">
+        <v>134772</v>
+      </c>
+      <c r="U21" t="n">
+        <v>152631</v>
+      </c>
+      <c r="V21" t="n">
+        <v>28185</v>
+      </c>
+      <c r="W21" t="n">
+        <v>63495</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15360</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>68806</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="E22" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>56.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>192.8286214179701</v>
+      </c>
+      <c r="I22" t="n">
+        <v>97.97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8424</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8759</v>
+      </c>
+      <c r="L22" t="n">
+        <v>159.18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="N22" t="n">
+        <v>153.55</v>
+      </c>
+      <c r="O22" t="n">
+        <v>191.34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>350360</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>157646</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-150550.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>106480</v>
+      </c>
+      <c r="U22" t="n">
+        <v>196762</v>
+      </c>
+      <c r="V22" t="n">
+        <v>19390</v>
+      </c>
+      <c r="W22" t="n">
+        <v>76210</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13048</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>100014</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="E23" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="F23" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84.76000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>90.80076435666172</v>
+      </c>
+      <c r="I23" t="n">
+        <v>95.56999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8072</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8759</v>
+      </c>
+      <c r="L23" t="n">
+        <v>78.72</v>
+      </c>
+      <c r="M23" t="n">
+        <v>73.31</v>
+      </c>
+      <c r="N23" t="n">
+        <v>122.41</v>
+      </c>
+      <c r="O23" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="P23" t="n">
+        <v>350360</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="R23" t="n">
+        <v>155067</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-139554.47</v>
+      </c>
+      <c r="T23" t="n">
+        <v>123200</v>
+      </c>
+      <c r="U23" t="n">
+        <v>149656</v>
+      </c>
+      <c r="V23" t="n">
+        <v>29297</v>
+      </c>
+      <c r="W23" t="n">
+        <v>66143</v>
+      </c>
+      <c r="X23" t="n">
+        <v>14884</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>60295</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F24" t="n">
+        <v>58.18</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>87.26646435891597</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8782</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8782</v>
+      </c>
+      <c r="L24" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>64.28</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>351280</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="R24" t="n">
+        <v>134258</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-134257.69</v>
+      </c>
+      <c r="T24" t="n">
+        <v>145200</v>
+      </c>
+      <c r="U24" t="n">
+        <v>150085</v>
+      </c>
+      <c r="V24" t="n">
+        <v>50129</v>
+      </c>
+      <c r="W24" t="n">
+        <v>67231</v>
+      </c>
+      <c r="X24" t="n">
+        <v>17966</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>59503</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C3:J3"/>

--- a/data/Simulator output.xlsx
+++ b/data/Simulator output.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:BE34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="81" workbookViewId="0">
       <selection activeCell="G184" sqref="G184"/>
@@ -1952,7 +1952,6 @@
       <c r="AF20" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
         <v>44</v>
       </c>
@@ -2102,7 +2101,6 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
         <v>44</v>
       </c>
@@ -2252,7 +2250,6 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
         <v>44</v>
       </c>
@@ -2402,7 +2399,6 @@
       <c r="AF23" t="n">
         <v>0</v>
       </c>
-      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
         <v>44</v>
       </c>
@@ -2552,7 +2548,6 @@
       <c r="AF24" t="n">
         <v>0</v>
       </c>
-      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
         <v>44</v>
       </c>
@@ -2606,6 +2601,1706 @@
       </c>
       <c r="AY24" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D25" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="F25" t="n">
+        <v>135.71</v>
+      </c>
+      <c r="G25" t="n">
+        <v>135.71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.69231955828779</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8784</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8784</v>
+      </c>
+      <c r="M25" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="N25" t="n">
+        <v>41</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>87840</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>158400</v>
+      </c>
+      <c r="U25" t="n">
+        <v>137483</v>
+      </c>
+      <c r="V25" t="n">
+        <v>47803</v>
+      </c>
+      <c r="W25" t="n">
+        <v>22287</v>
+      </c>
+      <c r="X25" t="n">
+        <v>96394</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>109819</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D26" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="G26" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="I26" t="n">
+        <v>86.7317895878525</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8758</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M26" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="N26" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1498.68</v>
+      </c>
+      <c r="T26" t="n">
+        <v>134772</v>
+      </c>
+      <c r="U26" t="n">
+        <v>152631</v>
+      </c>
+      <c r="V26" t="n">
+        <v>44173</v>
+      </c>
+      <c r="W26" t="n">
+        <v>23137</v>
+      </c>
+      <c r="X26" t="n">
+        <v>74723</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>123526</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="E27" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-227.96</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-227.96</v>
+      </c>
+      <c r="H27" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>192.8286214179701</v>
+      </c>
+      <c r="J27" t="n">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8576</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M27" t="n">
+        <v>159.18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="O27" t="n">
+        <v>328.35</v>
+      </c>
+      <c r="P27" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2040.93</v>
+      </c>
+      <c r="T27" t="n">
+        <v>106480</v>
+      </c>
+      <c r="U27" t="n">
+        <v>196762</v>
+      </c>
+      <c r="V27" t="n">
+        <v>33035</v>
+      </c>
+      <c r="W27" t="n">
+        <v>26525</v>
+      </c>
+      <c r="X27" t="n">
+        <v>52518</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>161883</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D28" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>53.11</v>
+      </c>
+      <c r="H28" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="I28" t="n">
+        <v>90.80076435666172</v>
+      </c>
+      <c r="J28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8719</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M28" t="n">
+        <v>78.72</v>
+      </c>
+      <c r="N28" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>173.88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1754.68</v>
+      </c>
+      <c r="T28" t="n">
+        <v>123200</v>
+      </c>
+      <c r="U28" t="n">
+        <v>201300</v>
+      </c>
+      <c r="V28" t="n">
+        <v>36744</v>
+      </c>
+      <c r="W28" t="n">
+        <v>27146</v>
+      </c>
+      <c r="X28" t="n">
+        <v>67653</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>167810</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>75.48</v>
+      </c>
+      <c r="I29" t="n">
+        <v>87.26646435891597</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8782</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8782</v>
+      </c>
+      <c r="M29" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>64.28</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>87820</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1571.08</v>
+      </c>
+      <c r="T29" t="n">
+        <v>145200</v>
+      </c>
+      <c r="U29" t="n">
+        <v>219600</v>
+      </c>
+      <c r="V29" t="n">
+        <v>41442</v>
+      </c>
+      <c r="W29" t="n">
+        <v>27918</v>
+      </c>
+      <c r="X29" t="n">
+        <v>91709</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>183657</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D30" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="E30" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="F30" t="n">
+        <v>135.71</v>
+      </c>
+      <c r="G30" t="n">
+        <v>135.71</v>
+      </c>
+      <c r="H30" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33.69231955828779</v>
+      </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8784</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8784</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="N30" t="n">
+        <v>41</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>87840</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>158400</v>
+      </c>
+      <c r="U30" t="n">
+        <v>137483</v>
+      </c>
+      <c r="V30" t="n">
+        <v>47803</v>
+      </c>
+      <c r="W30" t="n">
+        <v>22287</v>
+      </c>
+      <c r="X30" t="n">
+        <v>96394</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>109819</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D31" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="G31" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="H31" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="I31" t="n">
+        <v>86.7317895878525</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8758</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M31" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="N31" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="O31" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="P31" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1498.68</v>
+      </c>
+      <c r="T31" t="n">
+        <v>134772</v>
+      </c>
+      <c r="U31" t="n">
+        <v>152631</v>
+      </c>
+      <c r="V31" t="n">
+        <v>44173</v>
+      </c>
+      <c r="W31" t="n">
+        <v>23137</v>
+      </c>
+      <c r="X31" t="n">
+        <v>74723</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>123526</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D32" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-227.96</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-227.96</v>
+      </c>
+      <c r="H32" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>192.8286214179701</v>
+      </c>
+      <c r="J32" t="n">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8576</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M32" t="n">
+        <v>159.18</v>
+      </c>
+      <c r="N32" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="O32" t="n">
+        <v>328.35</v>
+      </c>
+      <c r="P32" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2040.93</v>
+      </c>
+      <c r="T32" t="n">
+        <v>106480</v>
+      </c>
+      <c r="U32" t="n">
+        <v>196762</v>
+      </c>
+      <c r="V32" t="n">
+        <v>33035</v>
+      </c>
+      <c r="W32" t="n">
+        <v>26525</v>
+      </c>
+      <c r="X32" t="n">
+        <v>52518</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>161883</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D33" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>53.11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>53.11</v>
+      </c>
+      <c r="H33" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="I33" t="n">
+        <v>90.80076435666172</v>
+      </c>
+      <c r="J33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8719</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M33" t="n">
+        <v>78.72</v>
+      </c>
+      <c r="N33" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>173.88</v>
+      </c>
+      <c r="P33" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>87590</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1754.68</v>
+      </c>
+      <c r="T33" t="n">
+        <v>123200</v>
+      </c>
+      <c r="U33" t="n">
+        <v>201300</v>
+      </c>
+      <c r="V33" t="n">
+        <v>36744</v>
+      </c>
+      <c r="W33" t="n">
+        <v>27146</v>
+      </c>
+      <c r="X33" t="n">
+        <v>67653</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>167810</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D34" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>75.48</v>
+      </c>
+      <c r="I34" t="n">
+        <v>87.26646435891597</v>
+      </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8782</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8782</v>
+      </c>
+      <c r="M34" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>64.28</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>87820</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1571.08</v>
+      </c>
+      <c r="T34" t="n">
+        <v>145200</v>
+      </c>
+      <c r="U34" t="n">
+        <v>219600</v>
+      </c>
+      <c r="V34" t="n">
+        <v>41442</v>
+      </c>
+      <c r="W34" t="n">
+        <v>27918</v>
+      </c>
+      <c r="X34" t="n">
+        <v>91709</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>183657</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
